--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42983,6 +42983,41 @@
         <v>355300</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>274700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43018,6 +43018,41 @@
         <v>274700</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>560000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43053,6 +43053,41 @@
         <v>560000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>2163700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43088,6 +43088,41 @@
         <v>2163700</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1069500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43123,6 +43123,41 @@
         <v>1069500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>425800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43158,6 +43158,41 @@
         <v>425800</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>796000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43193,6 +43193,41 @@
         <v>796000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>1806300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43228,6 +43228,41 @@
         <v>1806300</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>405900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43263,6 +43263,41 @@
         <v>405900</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>450900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43298,6 +43298,41 @@
         <v>450900</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>891200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43333,6 +43333,41 @@
         <v>891200</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>462900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43368,6 +43368,41 @@
         <v>462900</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1266500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43403,6 +43403,76 @@
         <v>1266500</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1757000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>2302400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43473,6 +43473,76 @@
         <v>2302400</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>630200</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>769900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43543,6 +43543,41 @@
         <v>769900</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>2094100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43578,6 +43578,41 @@
         <v>2094100</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1816100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43613,6 +43613,41 @@
         <v>1816100</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>2435900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43648,6 +43648,41 @@
         <v>2435900</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>2860100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43683,6 +43683,76 @@
         <v>2860100</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1987700</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>2008100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43753,6 +43753,41 @@
         <v>2008100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1488000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43788,6 +43788,41 @@
         <v>1488000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>2679200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2309"/>
+  <dimension ref="A1:I2310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81203,6 +81203,41 @@
         <v>2679200</v>
       </c>
     </row>
+    <row r="2310">
+      <c r="A2310" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2310" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2310" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2310" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2310" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F2310" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G2310" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H2310" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2310" t="n">
+        <v>2036400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2310"/>
+  <dimension ref="A1:I2311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81238,6 +81238,41 @@
         <v>2036400</v>
       </c>
     </row>
+    <row r="2311">
+      <c r="A2311" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2311" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2311" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2311" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2311" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G2311" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H2311" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I2311" t="n">
+        <v>1866100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2311"/>
+  <dimension ref="A1:I2312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81273,6 +81273,41 @@
         <v>1866100</v>
       </c>
     </row>
+    <row r="2312">
+      <c r="A2312" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2312" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2312" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2312" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2312" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G2312" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H2312" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2312" t="n">
+        <v>1945500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2312"/>
+  <dimension ref="A1:I2313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81308,6 +81308,41 @@
         <v>1945500</v>
       </c>
     </row>
+    <row r="2313">
+      <c r="A2313" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2313" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2313" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2313" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2313" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2313" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H2313" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I2313" t="n">
+        <v>2000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2313"/>
+  <dimension ref="A1:I2314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81343,6 +81343,41 @@
         <v>2000000</v>
       </c>
     </row>
+    <row r="2314">
+      <c r="A2314" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2314" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2314" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2314" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2314" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F2314" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G2314" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2314" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I2314" t="n">
+        <v>5003200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2314"/>
+  <dimension ref="A1:I2315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81378,6 +81378,41 @@
         <v>5003200</v>
       </c>
     </row>
+    <row r="2315">
+      <c r="A2315" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2315" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2315" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2315" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2315" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F2315" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G2315" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H2315" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I2315" t="n">
+        <v>1739400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2315"/>
+  <dimension ref="A1:I2316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81413,6 +81413,41 @@
         <v>1739400</v>
       </c>
     </row>
+    <row r="2316">
+      <c r="A2316" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2316" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2316" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2316" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2316" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F2316" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G2316" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H2316" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I2316" t="n">
+        <v>1774100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2316"/>
+  <dimension ref="A1:I2317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81448,6 +81448,41 @@
         <v>1774100</v>
       </c>
     </row>
+    <row r="2317">
+      <c r="A2317" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2317" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2317" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2317" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2317" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2317" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G2317" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H2317" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I2317" t="n">
+        <v>2962100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2317"/>
+  <dimension ref="A1:I2318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81483,6 +81483,41 @@
         <v>2962100</v>
       </c>
     </row>
+    <row r="2318">
+      <c r="A2318" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2318" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2318" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2318" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F2318" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G2318" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H2318" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2318" t="n">
+        <v>1924300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2318"/>
+  <dimension ref="A1:I2319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81518,6 +81518,41 @@
         <v>1924300</v>
       </c>
     </row>
+    <row r="2319">
+      <c r="A2319" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2319" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2319" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2319" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2319" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F2319" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G2319" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H2319" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I2319" t="n">
+        <v>3894600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2319"/>
+  <dimension ref="A1:I2320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81553,6 +81553,41 @@
         <v>3894600</v>
       </c>
     </row>
+    <row r="2320">
+      <c r="A2320" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2320" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2320" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2320" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2320" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G2320" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2320" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I2320" t="n">
+        <v>769300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2320"/>
+  <dimension ref="A1:I2321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81588,6 +81588,41 @@
         <v>769300</v>
       </c>
     </row>
+    <row r="2321">
+      <c r="A2321" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2321" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2321" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2321" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2321" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F2321" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G2321" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H2321" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="I2321" t="n">
+        <v>1429400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2321"/>
+  <dimension ref="A1:I2322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81623,6 +81623,41 @@
         <v>1429400</v>
       </c>
     </row>
+    <row r="2322">
+      <c r="A2322" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2322" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2322" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2322" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2322" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2322" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G2322" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H2322" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I2322" t="n">
+        <v>3868600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2322"/>
+  <dimension ref="A1:I2323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81658,6 +81658,41 @@
         <v>3868600</v>
       </c>
     </row>
+    <row r="2323">
+      <c r="A2323" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2323" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2323" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2323" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2323" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F2323" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G2323" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H2323" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I2323" t="n">
+        <v>1641900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2323"/>
+  <dimension ref="A1:I2324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81693,6 +81693,41 @@
         <v>1641900</v>
       </c>
     </row>
+    <row r="2324">
+      <c r="A2324" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2324" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2324" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2324" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2324" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F2324" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G2324" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H2324" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I2324" t="n">
+        <v>1159900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2324"/>
+  <dimension ref="A1:I2325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81728,6 +81728,41 @@
         <v>1159900</v>
       </c>
     </row>
+    <row r="2325">
+      <c r="A2325" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2325" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2325" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2325" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2325" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F2325" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G2325" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2325" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2325" t="n">
+        <v>1573100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2325"/>
+  <dimension ref="A1:I2326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81763,6 +81763,41 @@
         <v>1573100</v>
       </c>
     </row>
+    <row r="2326">
+      <c r="A2326" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2326" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2326" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2326" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2326" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F2326" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G2326" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H2326" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2326" t="n">
+        <v>2025900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2326"/>
+  <dimension ref="A1:I2327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81798,6 +81798,41 @@
         <v>2025900</v>
       </c>
     </row>
+    <row r="2327">
+      <c r="A2327" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2327" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2327" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2327" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F2327" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G2327" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H2327" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I2327" t="n">
+        <v>2068800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2327"/>
+  <dimension ref="A1:I2328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81833,6 +81833,41 @@
         <v>2068800</v>
       </c>
     </row>
+    <row r="2328">
+      <c r="A2328" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2328" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2328" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2328" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F2328" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G2328" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H2328" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I2328" t="n">
+        <v>1306500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2328"/>
+  <dimension ref="A1:I2329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81868,6 +81868,41 @@
         <v>1306500</v>
       </c>
     </row>
+    <row r="2329">
+      <c r="A2329" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2329" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2329" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F2329" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G2329" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H2329" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2329" t="n">
+        <v>1480000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2329"/>
+  <dimension ref="A1:I2330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81903,6 +81903,41 @@
         <v>1480000</v>
       </c>
     </row>
+    <row r="2330">
+      <c r="A2330" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2330" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2330" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2330" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F2330" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2330" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H2330" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I2330" t="n">
+        <v>1289000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2330"/>
+  <dimension ref="A1:I2331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81938,6 +81938,41 @@
         <v>1289000</v>
       </c>
     </row>
+    <row r="2331">
+      <c r="A2331" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2331" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2331" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2331" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F2331" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G2331" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H2331" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2331" t="n">
+        <v>2113600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2331"/>
+  <dimension ref="A1:I2332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81973,6 +81973,41 @@
         <v>2113600</v>
       </c>
     </row>
+    <row r="2332">
+      <c r="A2332" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2332" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2332" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2332" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F2332" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G2332" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2332" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2332" t="n">
+        <v>1327200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2332"/>
+  <dimension ref="A1:I2333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82008,6 +82008,41 @@
         <v>1327200</v>
       </c>
     </row>
+    <row r="2333">
+      <c r="A2333" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2333" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2333" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2333" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F2333" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G2333" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2333" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I2333" t="n">
+        <v>2895000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2333"/>
+  <dimension ref="A1:I2334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82043,6 +82043,41 @@
         <v>2895000</v>
       </c>
     </row>
+    <row r="2334">
+      <c r="A2334" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2334" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2334" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2334" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2334" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G2334" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2334" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I2334" t="n">
+        <v>7049400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2334"/>
+  <dimension ref="A1:I2336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82078,6 +82078,76 @@
         <v>7049400</v>
       </c>
     </row>
+    <row r="2335">
+      <c r="A2335" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2335" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2335" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2335" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F2335" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G2335" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H2335" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I2335" t="n">
+        <v>4347800</v>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2336" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2336" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2336" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F2336" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G2336" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2336" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I2336" t="n">
+        <v>2701500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2336"/>
+  <dimension ref="A1:I2337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82148,6 +82148,41 @@
         <v>2701500</v>
       </c>
     </row>
+    <row r="2337">
+      <c r="A2337" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2337" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2337" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2337" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2337" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G2337" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H2337" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I2337" t="n">
+        <v>2482400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2337"/>
+  <dimension ref="A1:I2340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82183,6 +82183,111 @@
         <v>2482400</v>
       </c>
     </row>
+    <row r="2338">
+      <c r="A2338" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2338" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2338" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2338" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F2338" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G2338" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H2338" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I2338" t="n">
+        <v>1518100</v>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2339" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2339" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2339" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F2339" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G2339" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2339" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I2339" t="n">
+        <v>1199200</v>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2340" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2340" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2340" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2340" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F2340" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G2340" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H2340" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="I2340" t="n">
+        <v>3136600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2340"/>
+  <dimension ref="A1:I2341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82288,6 +82288,41 @@
         <v>3136600</v>
       </c>
     </row>
+    <row r="2341">
+      <c r="A2341" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2341" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2341" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2341" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2341" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="G2341" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H2341" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2341" t="n">
+        <v>1490100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2341"/>
+  <dimension ref="A1:I2342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82323,6 +82323,41 @@
         <v>1490100</v>
       </c>
     </row>
+    <row r="2342">
+      <c r="A2342" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2342" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2342" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2342" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2342" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F2342" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G2342" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2342" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I2342" t="n">
+        <v>3278000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5184.xlsx
+++ b/data/5184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2342"/>
+  <dimension ref="A1:I2345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82358,6 +82358,111 @@
         <v>3278000</v>
       </c>
     </row>
+    <row r="2343">
+      <c r="A2343" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2343" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2343" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2343" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2343" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F2343" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G2343" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H2343" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I2343" t="n">
+        <v>12234700</v>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2344" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2344" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2344" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2344" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2344" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="G2344" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2344" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I2344" t="n">
+        <v>4344100</v>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2345" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2345" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="D2345" t="inlineStr">
+        <is>
+          <t>CYPARK</t>
+        </is>
+      </c>
+      <c r="E2345" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F2345" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G2345" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H2345" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I2345" t="n">
+        <v>2646500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
